--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148190.8351311752</v>
+        <v>145669.3305406568</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>156.0802324886293</v>
+        <v>106.5908076132621</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>203.5034304061564</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>79.94376605203107</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>35.33415019398285</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>119.0703895131287</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>233.4716947511259</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>161.8015669322324</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>169.9738082135683</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>163.0860508096764</v>
       </c>
       <c r="U8" t="n">
-        <v>76.84181172049824</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>46.6308125881393</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>61.17118126752713</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>155.2435806730856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W19" t="n">
-        <v>22.44547853568561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.95488441967092</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>111.3062202753125</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>928.667481339709</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>928.667481339709</v>
+        <v>158.9142690056416</v>
       </c>
       <c r="D2" t="n">
-        <v>771.0106808461439</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2023.335458920171</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1692.272571576601</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1692.272571576601</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.806813315521</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>928.667481339709</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4389,22 +4389,22 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,22 +4413,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>846.3061319081664</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.6427178510701</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>700.6427178510701</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>700.6427178510701</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>552.729624268677</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>405.8396767707666</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>237.8532120790452</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880306</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510701</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>700.6427178510701</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.6427178510701</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.481876182945</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C5" t="n">
-        <v>922.5193592425333</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D5" t="n">
-        <v>564.2536606357828</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>178.4654080375386</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>171.5199072883351</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182945</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.481876182945</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2555.949435236615</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>383.6188956900841</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>214.6827127621772</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>214.6827127621772</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>214.6827127621772</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>214.6827127621772</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1464.755404707256</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1464.755404707256</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1464.755404707256</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V7" t="n">
-        <v>1210.070916501369</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="W7" t="n">
-        <v>920.6537464644088</v>
+        <v>383.6188956900841</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>383.6188956900841</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>383.6188956900841</v>
       </c>
     </row>
     <row r="8">
@@ -4796,58 +4796,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>3042.010082356526</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2710.947195012955</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2710.947195012955</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2710.947195012955</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1598.676375775737</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1598.676375775737</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1343.99188756985</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1054.574717532889</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>826.5851666348717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>826.5851666348717</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,16 +5413,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5516,22 +5516,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,13 +5890,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2427.816735681603</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2244.961901336507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,16 +6780,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6838,16 +6838,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7166,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138415</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859347</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2418223735989</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7503,13 +7503,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460943</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985679</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>27.39221874047956</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>198.6028091320536</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.3141767695039</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.46607471595152</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823258</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>264.0775198009054</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42036229045077</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>35.12774237125667</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1077398.516134419</v>
+        <v>1077398.516134418</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.876140686</v>
+        <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.304868253</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682526</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682526</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682529</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.25326431793</v>
+        <v>92967.25326431797</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26433,31 +26433,31 @@
         <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744311</v>
-      </c>
       <c r="J4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744299</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744322</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744275</v>
+        <v>8727.256391744304</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-983400.9331393966</v>
+        <v>-983587.3265279351</v>
       </c>
       <c r="C6" t="n">
-        <v>120482.8427754928</v>
+        <v>120482.8427754925</v>
       </c>
       <c r="D6" t="n">
-        <v>-39532.61997250641</v>
+        <v>-39532.61997250642</v>
       </c>
       <c r="E6" t="n">
-        <v>-92224.94315475386</v>
+        <v>-92259.68108018937</v>
       </c>
       <c r="F6" t="n">
-        <v>233187.5186526014</v>
+        <v>233152.7807271656</v>
       </c>
       <c r="G6" t="n">
-        <v>233187.5186526013</v>
+        <v>233152.7807271658</v>
       </c>
       <c r="H6" t="n">
-        <v>233187.5186526015</v>
+        <v>233152.7807271654</v>
       </c>
       <c r="I6" t="n">
-        <v>233187.5186526012</v>
+        <v>233152.7807271659</v>
       </c>
       <c r="J6" t="n">
-        <v>65582.34084261868</v>
+        <v>65547.60291718296</v>
       </c>
       <c r="K6" t="n">
-        <v>233187.5186526012</v>
+        <v>233152.7807271657</v>
       </c>
       <c r="L6" t="n">
-        <v>184893.5486444107</v>
+        <v>184858.8107189749</v>
       </c>
       <c r="M6" t="n">
-        <v>148132.4907170897</v>
+        <v>148097.7527916541</v>
       </c>
       <c r="N6" t="n">
-        <v>233187.5186526013</v>
+        <v>233152.7807271658</v>
       </c>
       <c r="O6" t="n">
-        <v>233187.5186526015</v>
+        <v>233152.7807271655</v>
       </c>
       <c r="P6" t="n">
-        <v>233187.5186526015</v>
+        <v>233152.7807271658</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>248.0922340074208</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>47.54181972230558</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17.11978587706528</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>67.30774310309778</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>216.8034931298452</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>292.4773132598253</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>94.28056371900905</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>4.505033112571823</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,13 +27822,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>24.68865214816918</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.83191932994379</v>
       </c>
       <c r="U8" t="n">
-        <v>174.1533602384037</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>172.9181366880299</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>164.53847412151</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>553.5225306839445</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9556134883069083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>6.45443753892966</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
